--- a/data/seoul_stop_school.xlsx
+++ b/data/seoul_stop_school.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Structure/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanga\Desktop\Streamlit_App\MIDP_Streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72E7AF-F1F8-394B-895D-40274AC99415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B108A5-9458-4B94-A6C5-0338A6886B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="메타정보" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="45">
   <si>
     <t>시점</t>
   </si>
@@ -164,99 +163,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>○ 통계표ID</t>
-  </si>
-  <si>
-    <t>DT_201004_G010005</t>
-  </si>
-  <si>
-    <t>○ 통계표명</t>
-  </si>
-  <si>
-    <t>학업중단율</t>
-  </si>
-  <si>
-    <t>○ 조회기간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[년] 2011~2020  </t>
-  </si>
-  <si>
-    <t>○ 출처</t>
-  </si>
-  <si>
-    <t>서울특별시, 교육통계</t>
-  </si>
-  <si>
-    <t>○ 자료다운일자</t>
-  </si>
-  <si>
-    <t>2022.10.19 11:22</t>
-  </si>
-  <si>
-    <t>○ 통계표URL</t>
-  </si>
-  <si>
-    <t>https://stat.eseoul.go.kr/statHtml/statHtml.do?orgId=201&amp;tblId=DT_201004_G010005&amp;conn_path=I3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>* 시스템 개편 시 통계표 URL은 달라질 수 있음</t>
-  </si>
-  <si>
-    <t>○ 주석</t>
-  </si>
-  <si>
-    <t>통계표</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2011년 : 구분 연도는 학년도임(학업중단자는 2011.3.1~2012.2.28 기준이며, 학생수는 2011.4.1 기준임) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2012년 : 구분 연도는 학년도임(학업중단자는 2012.3.1~2013.2.28 기준이며, 학생수는 2012.4.1 기준임) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2013년 : 구분 연도는 학년도임(학업중단자는 2013.3.1~2014.2.28 기준이며, 학생수는 2013.4.1 기준임) </t>
-  </si>
-  <si>
-    <t>*2014년 : 구분 연도는 학년도임(학업중단자는 2014.3.1. ~ 2015.2.28. 기준이며, 학생수는 2014.4.1. 기준임)</t>
-  </si>
-  <si>
-    <t>*2015년 : 구분 연도는 학년도임(학업중단자는 2015.3.1. ~ 2016.2.28. 기준이며, 학생수는 2015.4.1. 기준임)</t>
-  </si>
-  <si>
-    <t>*2016년 : 연도는 학년도임(2016학년도 학업중단자는 2016.3.1.~2017.2.28.기준이며, 학생수는 2016.4.1.기준임)</t>
-  </si>
-  <si>
-    <t>*2017년 : 연도는 학년도임(2017학년도 학업중단자는 2017.03.01.~2018.02.28.기준이며, 학생수는 2017.4.1.기준임)</t>
-  </si>
-  <si>
-    <t>*2018년 : 연도는 학년도임(2018학년도 학업중단자는 2018.03.01.~2019.02.28.기준이며, 학생수는 2018.4.1.기준임)</t>
-  </si>
-  <si>
-    <t>*2019년 : 연도는 학년도임(2019학년도 학업중단자는 2019.03.01.~2020.02.29.기준이며, 학생수는 2019.4.1.기준임)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2016-2019년 : </t>
-  </si>
-  <si>
-    <t>-초등학교와 중학교는 유예 및 면제자를 학업중단자로 봄</t>
-  </si>
-  <si>
-    <t>-고등학교의 학업중단사유는 자퇴(질병, 가사, 부적응, 해외출국, 기타), 퇴학(품행)임</t>
-  </si>
-  <si>
-    <t>-학업중단자에 사망자는 포함되지 않음</t>
-  </si>
-  <si>
-    <t>항목 &gt; 학업중단율</t>
-  </si>
-  <si>
-    <t>(학업중단자수/학생수)*100</t>
-  </si>
-  <si>
     <t>학생수 (명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -337,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,9 +258,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -675,7 +578,7 @@
       <selection activeCell="IE5" sqref="IE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="78" width="14.6640625" customWidth="1"/>
@@ -687,9 +590,9 @@
     <col min="235" max="235" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:235" ht="20" customHeight="1">
+    <row r="1" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>B3&amp;" "&amp;B4&amp;" 학생수"</f>
@@ -1628,12 +1531,12 @@
         <v>강동구 고등학교 학업중단율</v>
       </c>
     </row>
-    <row r="2" spans="1:235" ht="20" customHeight="1">
+    <row r="2" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2335,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:235" ht="20" customHeight="1">
+    <row r="3" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +2945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:235" ht="20" customHeight="1">
+    <row r="4" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3749,7 +3652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:235" ht="20" customHeight="1">
+    <row r="5" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -4456,7 +4359,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:235" ht="20" customHeight="1">
+    <row r="6" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -5163,7 +5066,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:235" ht="20" customHeight="1">
+    <row r="7" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -5870,7 +5773,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="8" spans="1:235" ht="20" customHeight="1">
+    <row r="8" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -6577,7 +6480,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="9" spans="1:235" ht="20" customHeight="1">
+    <row r="9" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -7284,7 +7187,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:235" ht="20" customHeight="1">
+    <row r="10" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -7991,7 +7894,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:235" ht="20" customHeight="1">
+    <row r="11" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -8698,7 +8601,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="12" spans="1:235" ht="20" customHeight="1">
+    <row r="12" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -9405,7 +9308,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="13" spans="1:235" ht="20" customHeight="1">
+    <row r="13" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -10112,7 +10015,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="14" spans="1:235" ht="20" customHeight="1">
+    <row r="14" spans="1:235" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -10817,195 +10720,6 @@
       </c>
       <c r="IA14" s="4">
         <v>1.1200000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
